--- a/raw/NegEx_CLDF.xlsx
+++ b/raw/NegEx_CLDF.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Documents/GitHub/veselinovanegex/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B64DB-C93D-C441-9319-9B307C804FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27700" windowHeight="17320"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27700" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NegEx_CLLD" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NegEx_CLLD!$A$1:$J$205</definedName>
     <definedName name="_xlnm.Database">NegEx_CLLD!$A$1:$J$205</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="1774">
   <si>
     <t>ID</t>
   </si>
@@ -5363,12 +5369,15 @@
   <si>
     <t>Beàta Wagner-Nagu p.c., Laakso et al. 2012</t>
   </si>
+  <si>
+    <t>SN xxxx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5862,7 +5871,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5890,16 +5899,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6214,22 +6213,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
@@ -6237,9 +6236,8 @@
     <col min="4" max="4" width="100.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34" style="14" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col min="8" max="9" width="50.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="200.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6294,10 +6292,10 @@
       <c r="F2" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="1" t="s">
         <v>1495</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -6326,10 +6324,10 @@
       <c r="F3" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -6358,10 +6356,10 @@
       <c r="F4" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="1" t="s">
         <v>1486</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -6390,10 +6388,10 @@
       <c r="F5" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="1" t="s">
         <v>459</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -6419,17 +6417,17 @@
       <c r="F6" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="1" t="s">
         <v>1504</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -6448,10 +6446,10 @@
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="1" t="s">
         <v>1756</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="1" t="s">
         <v>1755</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -6477,10 +6475,10 @@
       <c r="F8" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -6506,10 +6504,10 @@
       <c r="F9" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -6538,10 +6536,10 @@
       <c r="F10" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -6567,10 +6565,10 @@
       <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -6596,10 +6594,10 @@
       <c r="F12" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="1" t="s">
         <v>1647</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -6626,10 +6624,10 @@
       <c r="F13" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="1" t="s">
         <v>1511</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -6655,14 +6653,14 @@
       <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6684,10 +6682,10 @@
       <c r="F15" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="1" t="s">
         <v>1518</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -6713,10 +6711,10 @@
       <c r="F16" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="1" t="s">
         <v>736</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -6742,10 +6740,10 @@
       <c r="F17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -6774,10 +6772,10 @@
       <c r="F18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -6803,10 +6801,10 @@
       <c r="F19" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -6832,10 +6830,10 @@
       <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -6861,10 +6859,10 @@
       <c r="F21" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -6890,10 +6888,10 @@
       <c r="F22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -6922,17 +6920,17 @@
       <c r="F23" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="1" t="s">
         <v>723</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="42">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="48">
       <c r="A24" s="7" t="s">
         <v>1648</v>
       </c>
@@ -6951,10 +6949,10 @@
       <c r="F24" s="7" t="s">
         <v>1653</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="7" t="s">
         <v>1655</v>
       </c>
       <c r="I24" s="7" t="s">
@@ -6980,10 +6978,10 @@
       <c r="F25" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="1" t="s">
         <v>890</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -7009,10 +7007,10 @@
       <c r="F26" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -7038,10 +7036,10 @@
       <c r="F27" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="1" t="s">
         <v>372</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -7067,10 +7065,10 @@
       <c r="F28" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="1" t="s">
         <v>583</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -7099,10 +7097,10 @@
       <c r="F29" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="1" t="s">
         <v>187</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -7128,10 +7126,10 @@
       <c r="F30" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="1" t="s">
         <v>593</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -7160,10 +7158,10 @@
       <c r="F31" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="1" t="s">
         <v>1174</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -7192,10 +7190,10 @@
       <c r="F32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -7221,10 +7219,10 @@
       <c r="F33" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="1" t="s">
         <v>118</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -7250,10 +7248,10 @@
       <c r="F34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -7279,10 +7277,10 @@
       <c r="F35" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="1" t="s">
         <v>1671</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -7309,10 +7307,10 @@
       <c r="F36" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -7341,10 +7339,10 @@
       <c r="F37" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="1" t="s">
         <v>1679</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -7371,10 +7369,10 @@
       <c r="F38" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -7400,10 +7398,10 @@
       <c r="F39" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="1" t="s">
         <v>1176</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -7429,10 +7427,10 @@
       <c r="F40" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -7458,10 +7456,10 @@
       <c r="F41" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="1" t="s">
         <v>476</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -7490,10 +7488,10 @@
       <c r="F42" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -7519,10 +7517,10 @@
       <c r="F43" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -7548,10 +7546,10 @@
       <c r="F44" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="1" t="s">
         <v>1763</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="1" t="s">
         <v>604</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -7577,10 +7575,10 @@
       <c r="F45" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="1" t="s">
         <v>1764</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -7606,10 +7604,10 @@
       <c r="F46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -7635,10 +7633,10 @@
       <c r="F47" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -7664,10 +7662,10 @@
       <c r="F48" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="1" t="s">
         <v>1768</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -7693,10 +7691,10 @@
       <c r="F49" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -7722,10 +7720,10 @@
       <c r="F50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -7751,10 +7749,10 @@
       <c r="F51" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -7780,10 +7778,10 @@
       <c r="F52" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="1" t="s">
         <v>251</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -7809,10 +7807,10 @@
       <c r="F53" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="1" t="s">
         <v>229</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -7838,10 +7836,10 @@
       <c r="F54" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -7867,10 +7865,10 @@
       <c r="F55" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="1" t="s">
         <v>1747</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -7896,10 +7894,10 @@
       <c r="F56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -7925,10 +7923,10 @@
       <c r="F57" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -7954,10 +7952,10 @@
       <c r="F58" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -7983,10 +7981,10 @@
       <c r="F59" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="1" t="s">
         <v>1214</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -8012,10 +8010,10 @@
       <c r="F60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -8044,10 +8042,10 @@
       <c r="F61" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="1" t="s">
         <v>347</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -8074,10 +8072,10 @@
       <c r="F62" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="1" t="s">
         <v>270</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -8104,10 +8102,10 @@
       <c r="F63" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="1" t="s">
         <v>1753</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -8133,10 +8131,10 @@
       <c r="F64" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -8165,10 +8163,10 @@
       <c r="F65" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="1" t="s">
         <v>717</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -8194,10 +8192,10 @@
       <c r="F66" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="1" t="s">
         <v>1751</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -8223,10 +8221,10 @@
       <c r="F67" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="1" t="s">
         <v>285</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -8252,10 +8250,10 @@
       <c r="F68" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="1" t="s">
         <v>706</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -8281,10 +8279,10 @@
       <c r="F69" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -8311,10 +8309,10 @@
       <c r="F70" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="1" t="s">
         <v>439</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -8343,10 +8341,10 @@
       <c r="F71" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -8372,10 +8370,10 @@
       <c r="F72" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="1" t="s">
         <v>294</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -8385,7 +8383,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="28">
+    <row r="73" spans="1:10" ht="32">
       <c r="A73" s="7" t="s">
         <v>526</v>
       </c>
@@ -8404,10 +8402,10 @@
       <c r="F73" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="7" t="s">
         <v>530</v>
       </c>
       <c r="I73" s="7" t="s">
@@ -8417,7 +8415,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" ht="16">
       <c r="A74" s="7" t="s">
         <v>155</v>
       </c>
@@ -8436,10 +8434,10 @@
       <c r="F74" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G74" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I74" s="7" t="s">
@@ -8466,10 +8464,10 @@
       <c r="F75" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="1" t="s">
         <v>405</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -8495,10 +8493,10 @@
       <c r="F76" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="1" t="s">
         <v>1748</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -8524,10 +8522,10 @@
       <c r="F77" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="1" t="s">
         <v>1769</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -8554,10 +8552,10 @@
       <c r="F78" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="H78" s="14" t="s">
+      <c r="H78" s="1" t="s">
         <v>357</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -8583,10 +8581,10 @@
       <c r="F79" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="1" t="s">
         <v>382</v>
       </c>
       <c r="I79" s="1" t="s">
@@ -8612,17 +8610,17 @@
       <c r="F80" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="10" customFormat="1" ht="28">
+    <row r="81" spans="1:10" s="10" customFormat="1" ht="32">
       <c r="A81" s="7" t="s">
         <v>256</v>
       </c>
@@ -8641,10 +8639,10 @@
       <c r="F81" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="7" t="s">
         <v>260</v>
       </c>
       <c r="I81" s="7" t="s">
@@ -8671,10 +8669,10 @@
       <c r="F82" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="1" t="s">
         <v>310</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -8700,10 +8698,10 @@
       <c r="F83" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -8730,10 +8728,10 @@
       <c r="F84" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="1" t="s">
         <v>366</v>
       </c>
       <c r="I84" s="1" t="s">
@@ -8759,10 +8757,10 @@
       <c r="F85" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="1" t="s">
         <v>352</v>
       </c>
       <c r="I85" s="1" t="s">
@@ -8788,10 +8786,10 @@
       <c r="F86" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="1" t="s">
         <v>124</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -8817,10 +8815,10 @@
       <c r="F87" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G87" s="14" t="s">
+      <c r="G87" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H87" s="1" t="s">
         <v>1257</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -8846,17 +8844,17 @@
       <c r="F88" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="1" t="s">
         <v>378</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="28">
+    <row r="89" spans="1:10" ht="32">
       <c r="A89" s="8" t="s">
         <v>387</v>
       </c>
@@ -8875,10 +8873,10 @@
       <c r="F89" s="8" t="s">
         <v>1131</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="H89" s="17" t="s">
+      <c r="H89" s="8" t="s">
         <v>378</v>
       </c>
       <c r="I89" s="8" t="s">
@@ -8905,10 +8903,10 @@
       <c r="F90" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H90" s="1" t="s">
         <v>326</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -8934,10 +8932,10 @@
       <c r="F91" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H91" s="1" t="s">
         <v>1762</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -8963,10 +8961,10 @@
       <c r="F92" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="1" t="s">
         <v>1663</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -8974,7 +8972,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="42">
+    <row r="93" spans="1:10" ht="48">
       <c r="A93" s="1" t="s">
         <v>1680</v>
       </c>
@@ -8993,10 +8991,10 @@
       <c r="F93" s="13" t="s">
         <v>1746</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H93" s="1" t="s">
         <v>1686</v>
       </c>
       <c r="I93" s="1" t="s">
@@ -9023,17 +9021,17 @@
       <c r="F94" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H94" s="1" t="s">
         <v>1266</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="16">
       <c r="A95" s="8" t="s">
         <v>332</v>
       </c>
@@ -9052,10 +9050,10 @@
       <c r="F95" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="8" t="s">
         <v>336</v>
       </c>
       <c r="I95" s="8" t="s">
@@ -9065,7 +9063,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="28">
+    <row r="96" spans="1:10" ht="32">
       <c r="A96" s="8" t="s">
         <v>616</v>
       </c>
@@ -9084,10 +9082,10 @@
       <c r="F96" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="8" t="s">
         <v>1478</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H96" s="8" t="s">
         <v>621</v>
       </c>
       <c r="I96" s="8" t="s">
@@ -9114,10 +9112,10 @@
       <c r="F97" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="H97" s="14" t="s">
+      <c r="H97" s="1" t="s">
         <v>992</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -9146,10 +9144,10 @@
       <c r="F98" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="H98" s="14" t="s">
+      <c r="H98" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="I98" s="1" t="s">
@@ -9175,10 +9173,10 @@
       <c r="F99" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="G99" s="14" t="s">
+      <c r="G99" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H99" s="14" t="s">
+      <c r="H99" s="1" t="s">
         <v>1537</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -9204,10 +9202,10 @@
       <c r="F100" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="H100" s="1" t="s">
         <v>1275</v>
       </c>
       <c r="I100" s="1" t="s">
@@ -9236,10 +9234,10 @@
       <c r="F101" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="H101" s="14" t="s">
+      <c r="H101" s="1" t="s">
         <v>541</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -9268,10 +9266,10 @@
       <c r="F102" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I102" s="1" t="s">
@@ -9300,10 +9298,10 @@
       <c r="F103" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="G103" s="14" t="s">
+      <c r="G103" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="1" t="s">
         <v>426</v>
       </c>
       <c r="I103" s="1" t="s">
@@ -9332,10 +9330,10 @@
       <c r="F104" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="1" t="s">
         <v>470</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -9362,10 +9360,10 @@
       <c r="F105" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G105" s="14" t="s">
+      <c r="G105" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="H105" s="1" t="s">
         <v>421</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -9391,10 +9389,10 @@
       <c r="F106" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="G106" s="14" t="s">
+      <c r="G106" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="I106" s="1" t="s">
@@ -9423,10 +9421,10 @@
       <c r="F107" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G107" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="H107" s="1" t="s">
         <v>948</v>
       </c>
       <c r="I107" s="1" t="s">
@@ -9452,10 +9450,10 @@
       <c r="F108" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="H108" s="14" t="s">
+      <c r="H108" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="I108" s="1" t="s">
@@ -9481,10 +9479,10 @@
       <c r="F109" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G109" s="14" t="s">
+      <c r="G109" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="H109" s="14" t="s">
+      <c r="H109" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="I109" s="1" t="s">
@@ -9513,10 +9511,10 @@
       <c r="F110" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G110" s="14" t="s">
+      <c r="G110" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H110" s="14" t="s">
+      <c r="H110" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -9543,10 +9541,10 @@
       <c r="F111" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="G111" s="14" t="s">
+      <c r="G111" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="H111" s="14" t="s">
+      <c r="H111" s="1" t="s">
         <v>1693</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -9573,10 +9571,10 @@
       <c r="F112" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="H112" s="14" t="s">
+      <c r="H112" s="1" t="s">
         <v>482</v>
       </c>
       <c r="I112" s="1" t="s">
@@ -9605,10 +9603,10 @@
       <c r="F113" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="H113" s="14" t="s">
+      <c r="H113" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I113" s="1" t="s">
@@ -9634,10 +9632,10 @@
       <c r="F114" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="H114" s="14" t="s">
+      <c r="H114" s="1" t="s">
         <v>525</v>
       </c>
       <c r="I114" s="1" t="s">
@@ -9663,10 +9661,10 @@
       <c r="F115" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="G115" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="H115" s="14" t="s">
+      <c r="H115" s="1" t="s">
         <v>509</v>
       </c>
       <c r="I115" s="1" t="s">
@@ -9692,10 +9690,10 @@
       <c r="F116" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="H116" s="14" t="s">
+      <c r="H116" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -9721,10 +9719,10 @@
       <c r="F117" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G117" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H117" s="14" t="s">
+      <c r="H117" s="1" t="s">
         <v>575</v>
       </c>
       <c r="I117" s="1" t="s">
@@ -9750,10 +9748,10 @@
       <c r="F118" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="H118" s="14" t="s">
+      <c r="H118" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="I118" s="1" t="s">
@@ -9779,10 +9777,10 @@
       <c r="F119" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="G119" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H119" s="14" t="s">
+      <c r="H119" s="1" t="s">
         <v>487</v>
       </c>
       <c r="I119" s="1" t="s">
@@ -9808,10 +9806,10 @@
       <c r="F120" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G120" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="H120" s="14" t="s">
+      <c r="H120" s="1" t="s">
         <v>1312</v>
       </c>
       <c r="I120" s="1" t="s">
@@ -9821,7 +9819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="28">
+    <row r="121" spans="1:10" ht="32">
       <c r="A121" s="8" t="s">
         <v>499</v>
       </c>
@@ -9840,10 +9838,10 @@
       <c r="F121" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="8" t="s">
         <v>1314</v>
       </c>
-      <c r="H121" s="17" t="s">
+      <c r="H121" s="8" t="s">
         <v>503</v>
       </c>
       <c r="I121" s="8" t="s">
@@ -9870,10 +9868,10 @@
       <c r="F122" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="H122" s="14" t="s">
+      <c r="H122" s="1" t="s">
         <v>561</v>
       </c>
       <c r="I122" s="1" t="s">
@@ -9899,10 +9897,10 @@
       <c r="F123" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="H123" s="14" t="s">
+      <c r="H123" s="1" t="s">
         <v>929</v>
       </c>
       <c r="I123" s="1" t="s">
@@ -9928,10 +9926,10 @@
       <c r="F124" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G124" s="14" t="s">
+      <c r="G124" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="H124" s="14" t="s">
+      <c r="H124" s="1" t="s">
         <v>599</v>
       </c>
       <c r="I124" s="1" t="s">
@@ -9957,10 +9955,10 @@
       <c r="F125" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G125" s="14" t="s">
+      <c r="G125" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="H125" s="14" t="s">
+      <c r="H125" s="1" t="s">
         <v>554</v>
       </c>
       <c r="I125" s="1" t="s">
@@ -9970,7 +9968,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="28">
+    <row r="126" spans="1:10" ht="32">
       <c r="A126" s="8" t="s">
         <v>493</v>
       </c>
@@ -9989,10 +9987,10 @@
       <c r="F126" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="G126" s="17" t="s">
+      <c r="G126" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="H126" s="17" t="s">
+      <c r="H126" s="8" t="s">
         <v>497</v>
       </c>
       <c r="I126" s="8" t="s">
@@ -10002,7 +10000,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="28">
+    <row r="127" spans="1:10" ht="32">
       <c r="A127" s="8" t="s">
         <v>576</v>
       </c>
@@ -10021,10 +10019,10 @@
       <c r="F127" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G127" s="8" t="s">
         <v>1325</v>
       </c>
-      <c r="H127" s="17" t="s">
+      <c r="H127" s="8" t="s">
         <v>580</v>
       </c>
       <c r="I127" s="8" t="s">
@@ -10053,10 +10051,10 @@
       <c r="F128" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="G128" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="H128" s="14" t="s">
+      <c r="H128" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I128" s="1" t="s">
@@ -10082,10 +10080,10 @@
       <c r="F129" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="G129" s="14" t="s">
+      <c r="G129" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="H129" s="14" t="s">
+      <c r="H129" s="1" t="s">
         <v>275</v>
       </c>
       <c r="I129" s="1" t="s">
@@ -10095,7 +10093,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15">
+    <row r="130" spans="1:10" ht="16">
       <c r="A130" s="1" t="s">
         <v>584</v>
       </c>
@@ -10117,7 +10115,7 @@
       <c r="G130" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="H130" s="14" t="s">
+      <c r="H130" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="I130" s="1" t="s">
@@ -10143,10 +10141,10 @@
       <c r="F131" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="G131" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="H131" s="14" t="s">
+      <c r="H131" s="1" t="s">
         <v>492</v>
       </c>
       <c r="I131" s="1" t="s">
@@ -10172,10 +10170,10 @@
       <c r="F132" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="I132" s="1" t="s">
@@ -10201,10 +10199,10 @@
       <c r="F133" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G133" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="H133" s="14" t="s">
+      <c r="H133" s="1" t="s">
         <v>609</v>
       </c>
       <c r="I133" s="1" t="s">
@@ -10230,10 +10228,10 @@
       <c r="F134" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="H134" s="14" t="s">
+      <c r="H134" s="1" t="s">
         <v>1336</v>
       </c>
       <c r="I134" s="1" t="s">
@@ -10262,10 +10260,10 @@
       <c r="F135" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="G135" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="H135" s="14" t="s">
+      <c r="H135" s="1" t="s">
         <v>649</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -10294,10 +10292,10 @@
       <c r="F136" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="G136" s="14" t="s">
+      <c r="G136" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="H136" s="14" t="s">
+      <c r="H136" s="1" t="s">
         <v>1770</v>
       </c>
       <c r="I136" s="1" t="s">
@@ -10323,10 +10321,10 @@
       <c r="F137" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="G137" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="H137" s="14" t="s">
+      <c r="H137" s="1" t="s">
         <v>626</v>
       </c>
       <c r="I137" s="1" t="s">
@@ -10352,10 +10350,10 @@
       <c r="F138" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G138" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="H138" s="14" t="s">
+      <c r="H138" s="1" t="s">
         <v>1771</v>
       </c>
       <c r="I138" s="1" t="s">
@@ -10382,10 +10380,10 @@
       <c r="F139" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G139" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="H139" s="14" t="s">
+      <c r="H139" s="1" t="s">
         <v>661</v>
       </c>
       <c r="I139" s="1" t="s">
@@ -10411,10 +10409,10 @@
       <c r="F140" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="G140" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="H140" s="14" t="s">
+      <c r="H140" s="1" t="s">
         <v>630</v>
       </c>
       <c r="I140" s="1" t="s">
@@ -10443,10 +10441,10 @@
       <c r="F141" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G141" s="14" t="s">
+      <c r="G141" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="H141" s="14" t="s">
+      <c r="H141" s="1" t="s">
         <v>640</v>
       </c>
       <c r="I141" s="1" t="s">
@@ -10472,10 +10470,10 @@
       <c r="F142" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G142" s="14" t="s">
+      <c r="G142" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="H142" s="14" t="s">
+      <c r="H142" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="I142" s="1" t="s">
@@ -10501,10 +10499,10 @@
       <c r="F143" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G143" s="14" t="s">
+      <c r="G143" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H143" s="14" t="s">
+      <c r="H143" s="1" t="s">
         <v>570</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -10530,10 +10528,10 @@
       <c r="F144" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G144" s="14" t="s">
+      <c r="G144" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H144" s="14" t="s">
+      <c r="H144" s="1" t="s">
         <v>439</v>
       </c>
       <c r="I144" s="1" t="s">
@@ -10559,10 +10557,10 @@
       <c r="F145" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="G145" s="14" t="s">
+      <c r="G145" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="H145" s="14" t="s">
+      <c r="H145" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I145" s="1" t="s">
@@ -10589,10 +10587,10 @@
       <c r="F146" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G146" s="14" t="s">
+      <c r="G146" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="H146" s="14" t="s">
+      <c r="H146" s="1" t="s">
         <v>655</v>
       </c>
       <c r="I146" s="1" t="s">
@@ -10619,10 +10617,10 @@
       <c r="F147" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G147" s="14" t="s">
+      <c r="G147" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="H147" s="14" t="s">
+      <c r="H147" s="1" t="s">
         <v>113</v>
       </c>
       <c r="I147" s="1" t="s">
@@ -10651,10 +10649,10 @@
       <c r="F148" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="G148" s="14" t="s">
+      <c r="G148" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="H148" s="14" t="s">
+      <c r="H148" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="I148" s="1" t="s">
@@ -10680,10 +10678,10 @@
       <c r="F149" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G149" s="14" t="s">
+      <c r="G149" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="H149" s="14" t="s">
+      <c r="H149" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="I149" s="1" t="s">
@@ -10709,10 +10707,10 @@
       <c r="F150" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="G150" s="14" t="s">
+      <c r="G150" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H150" s="14" t="s">
+      <c r="H150" s="1" t="s">
         <v>1558</v>
       </c>
       <c r="I150" s="1" t="s">
@@ -10738,10 +10736,10 @@
       <c r="F151" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="G151" s="14" t="s">
+      <c r="G151" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H151" s="14" t="s">
+      <c r="H151" s="1" t="s">
         <v>1760</v>
       </c>
       <c r="I151" s="1" t="s">
@@ -10767,10 +10765,10 @@
       <c r="F152" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G152" s="14" t="s">
+      <c r="G152" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="H152" s="14" t="s">
+      <c r="H152" s="1" t="s">
         <v>689</v>
       </c>
       <c r="I152" s="1" t="s">
@@ -10796,10 +10794,10 @@
       <c r="F153" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="G153" s="14" t="s">
+      <c r="G153" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H153" s="14" t="s">
+      <c r="H153" s="1" t="s">
         <v>135</v>
       </c>
       <c r="I153" s="1" t="s">
@@ -10825,10 +10823,10 @@
       <c r="F154" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="G154" s="14" t="s">
+      <c r="G154" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="H154" s="14" t="s">
+      <c r="H154" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="I154" s="1" t="s">
@@ -10855,10 +10853,10 @@
       <c r="F155" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="G155" s="14" t="s">
+      <c r="G155" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="H155" s="14" t="s">
+      <c r="H155" s="1" t="s">
         <v>1063</v>
       </c>
       <c r="I155" s="1" t="s">
@@ -10884,10 +10882,10 @@
       <c r="F156" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="G156" s="14" t="s">
+      <c r="G156" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="H156" s="14" t="s">
+      <c r="H156" s="1" t="s">
         <v>695</v>
       </c>
       <c r="I156" s="1" t="s">
@@ -10913,10 +10911,10 @@
       <c r="F157" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="G157" s="14" t="s">
+      <c r="G157" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="H157" s="14" t="s">
+      <c r="H157" s="1" t="s">
         <v>700</v>
       </c>
       <c r="I157" s="1" t="s">
@@ -10943,17 +10941,17 @@
       <c r="F158" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="G158" s="14" t="s">
+      <c r="G158" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="H158" s="14" t="s">
+      <c r="H158" s="1" t="s">
         <v>874</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="28">
+    <row r="159" spans="1:10" ht="32">
       <c r="A159" s="8" t="s">
         <v>12</v>
       </c>
@@ -10972,10 +10970,10 @@
       <c r="F159" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G159" s="17" t="s">
+      <c r="G159" s="8" t="s">
         <v>1369</v>
       </c>
-      <c r="H159" s="17" t="s">
+      <c r="H159" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I159" s="8" t="s">
@@ -11004,10 +11002,10 @@
       <c r="F160" s="12" t="s">
         <v>1370</v>
       </c>
-      <c r="G160" s="14" t="s">
+      <c r="G160" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="H160" s="14" t="s">
+      <c r="H160" s="1" t="s">
         <v>670</v>
       </c>
       <c r="I160" s="1" t="s">
@@ -11033,10 +11031,10 @@
       <c r="F161" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="G161" s="14" t="s">
+      <c r="G161" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="H161" s="14" t="s">
+      <c r="H161" s="1" t="s">
         <v>1749</v>
       </c>
       <c r="I161" s="1" t="s">
@@ -11062,10 +11060,10 @@
       <c r="F162" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G162" s="14" t="s">
+      <c r="G162" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="H162" s="14" t="s">
+      <c r="H162" s="1" t="s">
         <v>1752</v>
       </c>
       <c r="I162" s="1" t="s">
@@ -11091,10 +11089,10 @@
       <c r="F163" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="G163" s="14" t="s">
+      <c r="G163" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="H163" s="14" t="s">
+      <c r="H163" s="1" t="s">
         <v>1730</v>
       </c>
       <c r="I163" s="1" t="s">
@@ -11121,10 +11119,10 @@
       <c r="F164" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="G164" s="14" t="s">
+      <c r="G164" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H164" s="14" t="s">
+      <c r="H164" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I164" s="1" t="s">
@@ -11150,10 +11148,10 @@
       <c r="F165" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="G165" s="14" t="s">
+      <c r="G165" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H165" s="14" t="s">
+      <c r="H165" s="1" t="s">
         <v>749</v>
       </c>
       <c r="I165" s="1" t="s">
@@ -11182,10 +11180,10 @@
       <c r="F166" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="G166" s="14" t="s">
+      <c r="G166" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="H166" s="14" t="s">
+      <c r="H166" s="1" t="s">
         <v>790</v>
       </c>
       <c r="I166" s="1" t="s">
@@ -11211,10 +11209,10 @@
       <c r="F167" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="G167" s="14" t="s">
+      <c r="G167" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="H167" s="14" t="s">
+      <c r="H167" s="1" t="s">
         <v>1701</v>
       </c>
       <c r="I167" s="1" t="s">
@@ -11222,7 +11220,7 @@
       </c>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10" ht="42">
+    <row r="168" spans="1:10" ht="48">
       <c r="A168" s="8" t="s">
         <v>791</v>
       </c>
@@ -11241,10 +11239,10 @@
       <c r="F168" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="G168" s="17" t="s">
+      <c r="G168" s="8" t="s">
         <v>1378</v>
       </c>
-      <c r="H168" s="17" t="s">
+      <c r="H168" s="8" t="s">
         <v>796</v>
       </c>
       <c r="I168" s="8" t="s">
@@ -11254,7 +11252,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="28">
+    <row r="169" spans="1:10" ht="32">
       <c r="A169" s="8" t="s">
         <v>742</v>
       </c>
@@ -11273,10 +11271,10 @@
       <c r="F169" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="G169" s="17" t="s">
+      <c r="G169" s="8" t="s">
         <v>1772</v>
       </c>
-      <c r="H169" s="17" t="s">
+      <c r="H169" s="8" t="s">
         <v>1772</v>
       </c>
       <c r="I169" s="8" t="s">
@@ -11284,7 +11282,7 @@
       </c>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="1:10" ht="28">
+    <row r="170" spans="1:10" ht="32">
       <c r="A170" s="8" t="s">
         <v>755</v>
       </c>
@@ -11303,10 +11301,10 @@
       <c r="F170" s="8" t="s">
         <v>1382</v>
       </c>
-      <c r="G170" s="17" t="s">
+      <c r="G170" s="8" t="s">
         <v>1381</v>
       </c>
-      <c r="H170" s="17" t="s">
+      <c r="H170" s="8" t="s">
         <v>759</v>
       </c>
       <c r="I170" s="8" t="s">
@@ -11335,10 +11333,10 @@
       <c r="F171" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G171" s="14" t="s">
+      <c r="G171" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H171" s="14" t="s">
+      <c r="H171" s="1" t="s">
         <v>754</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -11364,10 +11362,10 @@
       <c r="F172" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="G172" s="14" t="s">
+      <c r="G172" s="1" t="s">
         <v>1750</v>
       </c>
-      <c r="H172" s="14" t="s">
+      <c r="H172" s="1" t="s">
         <v>765</v>
       </c>
       <c r="I172" s="1" t="s">
@@ -11396,10 +11394,10 @@
       <c r="F173" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="G173" s="14" t="s">
+      <c r="G173" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H173" s="14" t="s">
+      <c r="H173" s="1" t="s">
         <v>459</v>
       </c>
       <c r="I173" s="1" t="s">
@@ -11425,10 +11423,10 @@
       <c r="F174" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="G174" s="14" t="s">
+      <c r="G174" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="H174" s="14" t="s">
+      <c r="H174" s="1" t="s">
         <v>1708</v>
       </c>
       <c r="I174" s="1" t="s">
@@ -11455,10 +11453,10 @@
       <c r="F175" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="G175" s="14" t="s">
+      <c r="G175" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="H175" s="14" t="s">
+      <c r="H175" s="1" t="s">
         <v>1715</v>
       </c>
       <c r="I175" s="1" t="s">
@@ -11485,10 +11483,10 @@
       <c r="F176" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="G176" s="14" t="s">
+      <c r="G176" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="H176" s="14" t="s">
+      <c r="H176" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="I176" s="1" t="s">
@@ -11514,10 +11512,10 @@
       <c r="F177" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="G177" s="14" t="s">
+      <c r="G177" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="H177" s="14" t="s">
+      <c r="H177" s="1" t="s">
         <v>774</v>
       </c>
       <c r="I177" s="1" t="s">
@@ -11543,17 +11541,17 @@
       <c r="F178" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="G178" s="14" t="s">
+      <c r="G178" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="H178" s="14" t="s">
+      <c r="H178" s="1" t="s">
         <v>778</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="28">
+    <row r="179" spans="1:10" ht="32">
       <c r="A179" s="8" t="s">
         <v>779</v>
       </c>
@@ -11572,10 +11570,10 @@
       <c r="F179" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="G179" s="17" t="s">
+      <c r="G179" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="H179" s="17" t="s">
+      <c r="H179" s="8" t="s">
         <v>783</v>
       </c>
       <c r="I179" s="8" t="s">
@@ -11604,10 +11602,10 @@
       <c r="F180" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G180" s="14" t="s">
+      <c r="G180" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="H180" s="14" t="s">
+      <c r="H180" s="1" t="s">
         <v>689</v>
       </c>
       <c r="I180" s="1" t="s">
@@ -11633,17 +11631,17 @@
       <c r="F181" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G181" s="14" t="s">
+      <c r="G181" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H181" s="14" t="s">
+      <c r="H181" s="1" t="s">
         <v>433</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" ht="16">
       <c r="A182" s="8" t="s">
         <v>230</v>
       </c>
@@ -11662,10 +11660,10 @@
       <c r="F182" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G182" s="17" t="s">
+      <c r="G182" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H182" s="17" t="s">
+      <c r="H182" s="8" t="s">
         <v>235</v>
       </c>
       <c r="I182" s="8" t="s">
@@ -11692,10 +11690,10 @@
       <c r="F183" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="G183" s="14" t="s">
+      <c r="G183" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H183" s="14" t="s">
+      <c r="H183" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I183" s="1" t="s">
@@ -11724,10 +11722,10 @@
       <c r="F184" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G184" s="14" t="s">
+      <c r="G184" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="H184" s="14" t="s">
+      <c r="H184" s="1" t="s">
         <v>515</v>
       </c>
       <c r="I184" s="1" t="s">
@@ -11756,10 +11754,10 @@
       <c r="F185" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="G185" s="14" t="s">
+      <c r="G185" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="H185" s="14" t="s">
+      <c r="H185" s="1" t="s">
         <v>808</v>
       </c>
       <c r="I185" s="1" t="s">
@@ -11785,10 +11783,10 @@
       <c r="F186" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="G186" s="14" t="s">
+      <c r="G186" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H186" s="14" t="s">
+      <c r="H186" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="I186" s="1" t="s">
@@ -11814,10 +11812,10 @@
       <c r="F187" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G187" s="14" t="s">
+      <c r="G187" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H187" s="14" t="s">
+      <c r="H187" s="1" t="s">
         <v>740</v>
       </c>
       <c r="I187" s="1" t="s">
@@ -11846,10 +11844,10 @@
       <c r="F188" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="G188" s="14" t="s">
+      <c r="G188" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H188" s="14" t="s">
+      <c r="H188" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="I188" s="1" t="s">
@@ -11876,10 +11874,10 @@
       <c r="F189" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="G189" s="14" t="s">
+      <c r="G189" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H189" s="14" t="s">
+      <c r="H189" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="I189" s="1" t="s">
@@ -11905,10 +11903,10 @@
       <c r="F190" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="G190" s="14" t="s">
+      <c r="G190" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="H190" s="14" t="s">
+      <c r="H190" s="1" t="s">
         <v>828</v>
       </c>
       <c r="I190" s="1" t="s">
@@ -11934,10 +11932,10 @@
       <c r="F191" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="G191" s="14" t="s">
+      <c r="G191" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="H191" s="14" t="s">
+      <c r="H191" s="1" t="s">
         <v>838</v>
       </c>
       <c r="I191" s="1" t="s">
@@ -11963,10 +11961,10 @@
       <c r="F192" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G192" s="14" t="s">
+      <c r="G192" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="H192" s="14" t="s">
+      <c r="H192" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -11992,10 +11990,10 @@
       <c r="F193" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="G193" s="14" t="s">
+      <c r="G193" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="H193" s="14" t="s">
+      <c r="H193" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="I193" s="1" t="s">
@@ -12024,10 +12022,10 @@
       <c r="F194" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="G194" s="14" t="s">
+      <c r="G194" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H194" s="14" t="s">
+      <c r="H194" s="1" t="s">
         <v>1747</v>
       </c>
       <c r="I194" s="1" t="s">
@@ -12053,10 +12051,10 @@
       <c r="F195" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="G195" s="14" t="s">
+      <c r="G195" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="H195" s="14" t="s">
+      <c r="H195" s="1" t="s">
         <v>1722</v>
       </c>
       <c r="I195" s="1" t="s">
@@ -12083,10 +12081,10 @@
       <c r="F196" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="G196" s="14" t="s">
+      <c r="G196" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="H196" s="14" t="s">
+      <c r="H196" s="1" t="s">
         <v>822</v>
       </c>
       <c r="I196" s="1" t="s">
@@ -12112,10 +12110,10 @@
       <c r="F197" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="G197" s="14" t="s">
+      <c r="G197" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="H197" s="14" t="s">
+      <c r="H197" s="1" t="s">
         <v>844</v>
       </c>
       <c r="I197" s="1" t="s">
@@ -12141,10 +12139,10 @@
       <c r="F198" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="G198" s="14" t="s">
+      <c r="G198" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H198" s="14" t="s">
+      <c r="H198" s="1" t="s">
         <v>1583</v>
       </c>
       <c r="I198" s="1" t="s">
@@ -12173,10 +12171,10 @@
       <c r="F199" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="G199" s="14" t="s">
+      <c r="G199" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="H199" s="14" t="s">
+      <c r="H199" s="1" t="s">
         <v>1415</v>
       </c>
       <c r="I199" s="1" t="s">
@@ -12205,17 +12203,17 @@
       <c r="F200" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="G200" s="14" t="s">
+      <c r="G200" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="H200" s="14" t="s">
+      <c r="H200" s="1" t="s">
         <v>834</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15">
+    <row r="201" spans="1:10" ht="16">
       <c r="A201" s="1" t="s">
         <v>855</v>
       </c>
@@ -12237,7 +12235,7 @@
       <c r="G201" s="5" t="s">
         <v>1419</v>
       </c>
-      <c r="H201" s="14" t="s">
+      <c r="H201" s="1" t="s">
         <v>1766</v>
       </c>
       <c r="I201" s="1" t="s">
@@ -12263,10 +12261,10 @@
       <c r="F202" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="G202" s="14" t="s">
+      <c r="G202" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="H202" s="14" t="s">
+      <c r="H202" s="1" t="s">
         <v>853</v>
       </c>
       <c r="I202" s="1" t="s">
@@ -12295,10 +12293,10 @@
       <c r="F203" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="G203" s="14" t="s">
+      <c r="G203" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="H203" s="14" t="s">
+      <c r="H203" s="1" t="s">
         <v>863</v>
       </c>
       <c r="I203" s="1" t="s">
@@ -12324,10 +12322,10 @@
       <c r="F204" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="G204" s="14" t="s">
+      <c r="G204" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H204" s="14" t="s">
+      <c r="H204" s="1" t="s">
         <v>201</v>
       </c>
       <c r="I204" s="1" t="s">
@@ -12353,10 +12351,10 @@
       <c r="F205" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="G205" s="14" t="s">
+      <c r="G205" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="H205" s="14" t="s">
+      <c r="H205" s="1" t="s">
         <v>1590</v>
       </c>
       <c r="I205" s="1" t="s">
@@ -12385,10 +12383,10 @@
       <c r="F206" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="G206" s="14" t="s">
+      <c r="G206" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="H206" s="14" t="s">
+      <c r="H206" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="I206" s="1" t="s">
@@ -12417,17 +12415,17 @@
       <c r="F207" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="G207" s="14" t="s">
+      <c r="G207" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H207" s="14" t="s">
+      <c r="H207" s="1" t="s">
         <v>1747</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" ht="16">
       <c r="A208" s="1" t="s">
         <v>1739</v>
       </c>
@@ -12446,10 +12444,10 @@
       <c r="F208" s="13" t="s">
         <v>1743</v>
       </c>
-      <c r="G208" s="14" t="s">
+      <c r="G208" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="H208" s="14" t="s">
+      <c r="H208" s="1" t="s">
         <v>1745</v>
       </c>
       <c r="I208" s="1" t="s">
@@ -12476,10 +12474,10 @@
       <c r="F209" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="G209" s="14" t="s">
+      <c r="G209" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="H209" s="14" t="s">
+      <c r="H209" s="1" t="s">
         <v>342</v>
       </c>
       <c r="I209" s="1" t="s">
@@ -12505,10 +12503,10 @@
       <c r="F210" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="G210" s="14" t="s">
+      <c r="G210" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="H210" s="14" t="s">
+      <c r="H210" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I210" s="1" t="s">
@@ -12534,10 +12532,10 @@
       <c r="F211" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="G211" s="14" t="s">
+      <c r="G211" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="H211" s="14" t="s">
+      <c r="H211" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="I211" s="1" t="s">
@@ -12563,10 +12561,10 @@
       <c r="F212" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G212" s="14" t="s">
+      <c r="G212" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="H212" s="14" t="s">
+      <c r="H212" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I212" s="1" t="s">
@@ -12592,10 +12590,10 @@
       <c r="F213" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="G213" s="14" t="s">
+      <c r="G213" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="H213" s="14" t="s">
+      <c r="H213" s="1" t="s">
         <v>1738</v>
       </c>
       <c r="I213" s="1" t="s">
@@ -12622,10 +12620,10 @@
       <c r="F214" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="G214" s="14" t="s">
+      <c r="G214" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="H214" s="14" t="s">
+      <c r="H214" s="1" t="s">
         <v>895</v>
       </c>
       <c r="I214" s="1" t="s">
@@ -12651,10 +12649,10 @@
       <c r="F215" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="G215" s="14" t="s">
+      <c r="G215" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="H215" s="14" t="s">
+      <c r="H215" s="1" t="s">
         <v>900</v>
       </c>
       <c r="I215" s="1" t="s">
@@ -12680,10 +12678,10 @@
       <c r="F216" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="G216" s="14" t="s">
+      <c r="G216" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="H216" s="14" t="s">
+      <c r="H216" s="1" t="s">
         <v>905</v>
       </c>
       <c r="I216" s="1" t="s">
@@ -12709,17 +12707,17 @@
       <c r="F217" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G217" s="14" t="s">
+      <c r="G217" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H217" s="14" t="s">
+      <c r="H217" s="1" t="s">
         <v>433</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="15">
+    <row r="218" spans="1:10" ht="16">
       <c r="A218" s="1" t="s">
         <v>949</v>
       </c>
@@ -12741,14 +12739,14 @@
       <c r="G218" s="5" t="s">
         <v>1286</v>
       </c>
-      <c r="H218" s="14" t="s">
+      <c r="H218" s="1" t="s">
         <v>952</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="28">
+    <row r="219" spans="1:10" ht="32">
       <c r="A219" s="8" t="s">
         <v>958</v>
       </c>
@@ -12767,10 +12765,10 @@
       <c r="F219" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="G219" s="17" t="s">
+      <c r="G219" s="8" t="s">
         <v>1439</v>
       </c>
-      <c r="H219" s="17" t="s">
+      <c r="H219" s="8" t="s">
         <v>963</v>
       </c>
       <c r="I219" s="8" t="s">
@@ -12797,10 +12795,10 @@
       <c r="F220" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="G220" s="14" t="s">
+      <c r="G220" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="H220" s="14" t="s">
+      <c r="H220" s="1" t="s">
         <v>1440</v>
       </c>
       <c r="I220" s="1" t="s">
@@ -12829,10 +12827,10 @@
       <c r="F221" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="G221" s="14" t="s">
+      <c r="G221" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="H221" s="14" t="s">
+      <c r="H221" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="I221" s="1" t="s">
@@ -12858,10 +12856,10 @@
       <c r="F222" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="G222" s="14" t="s">
+      <c r="G222" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="H222" s="14" t="s">
+      <c r="H222" s="1" t="s">
         <v>923</v>
       </c>
       <c r="I222" s="1" t="s">
@@ -12887,10 +12885,10 @@
       <c r="F223" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="G223" s="14" t="s">
+      <c r="G223" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="H223" s="14" t="s">
+      <c r="H223" s="1" t="s">
         <v>933</v>
       </c>
       <c r="I223" s="1" t="s">
@@ -12916,10 +12914,10 @@
       <c r="F224" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="G224" s="14" t="s">
+      <c r="G224" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="H224" s="14" t="s">
+      <c r="H224" s="1" t="s">
         <v>1761</v>
       </c>
       <c r="I224" s="1" t="s">
@@ -12945,10 +12943,10 @@
       <c r="F225" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="G225" s="14" t="s">
+      <c r="G225" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="H225" s="14" t="s">
+      <c r="H225" s="1" t="s">
         <v>968</v>
       </c>
       <c r="I225" s="1" t="s">
@@ -12974,10 +12972,10 @@
       <c r="F226" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="G226" s="14" t="s">
+      <c r="G226" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="H226" s="14" t="s">
+      <c r="H226" s="1" t="s">
         <v>942</v>
       </c>
       <c r="I226" s="1" t="s">
@@ -13003,10 +13001,10 @@
       <c r="F227" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="G227" s="14" t="s">
+      <c r="G227" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="H227" s="14" t="s">
+      <c r="H227" s="1" t="s">
         <v>1598</v>
       </c>
       <c r="I227" s="1" t="s">
@@ -13035,10 +13033,10 @@
       <c r="F228" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="G228" s="14" t="s">
+      <c r="G228" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H228" s="14" t="s">
+      <c r="H228" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="I228" s="1" t="s">
@@ -13064,10 +13062,10 @@
       <c r="F229" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="G229" s="14" t="s">
+      <c r="G229" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="H229" s="14" t="s">
+      <c r="H229" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="I229" s="1" t="s">
@@ -13093,10 +13091,10 @@
       <c r="F230" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G230" s="14" t="s">
+      <c r="G230" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="H230" s="14" t="s">
+      <c r="H230" s="1" t="s">
         <v>316</v>
       </c>
       <c r="I230" s="1" t="s">
@@ -13122,17 +13120,17 @@
       <c r="F231" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="G231" s="14" t="s">
+      <c r="G231" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H231" s="14" t="s">
+      <c r="H231" s="1" t="s">
         <v>459</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="15">
+    <row r="232" spans="1:10" ht="16">
       <c r="A232" s="1" t="s">
         <v>676</v>
       </c>
@@ -13154,7 +13152,7 @@
       <c r="G232" s="5" t="s">
         <v>1449</v>
       </c>
-      <c r="H232" s="14" t="s">
+      <c r="H232" s="1" t="s">
         <v>681</v>
       </c>
       <c r="I232" s="1" t="s">
@@ -13180,10 +13178,10 @@
       <c r="F233" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G233" s="14" t="s">
+      <c r="G233" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="H233" s="14" t="s">
+      <c r="H233" s="1" t="s">
         <v>301</v>
       </c>
       <c r="I233" s="1" t="s">
@@ -13209,10 +13207,10 @@
       <c r="F234" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G234" s="14" t="s">
+      <c r="G234" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="H234" s="14" t="s">
+      <c r="H234" s="1" t="s">
         <v>565</v>
       </c>
       <c r="I234" s="1" t="s">
@@ -13238,10 +13236,10 @@
       <c r="F235" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="G235" s="14" t="s">
+      <c r="G235" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="H235" s="14" t="s">
+      <c r="H235" s="1" t="s">
         <v>1454</v>
       </c>
       <c r="I235" s="1" t="s">
@@ -13267,10 +13265,10 @@
       <c r="F236" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="G236" s="14" t="s">
+      <c r="G236" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="H236" s="14" t="s">
+      <c r="H236" s="1" t="s">
         <v>1619</v>
       </c>
       <c r="I236" s="1" t="s">
@@ -13299,10 +13297,10 @@
       <c r="F237" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="G237" s="14" t="s">
+      <c r="G237" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H237" s="14" t="s">
+      <c r="H237" s="1" t="s">
         <v>1626</v>
       </c>
       <c r="I237" s="1" t="s">
@@ -13328,10 +13326,10 @@
       <c r="F238" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="G238" s="14" t="s">
+      <c r="G238" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="H238" s="14" t="s">
+      <c r="H238" s="1" t="s">
         <v>978</v>
       </c>
       <c r="I238" s="1" t="s">
@@ -13357,10 +13355,10 @@
       <c r="F239" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="G239" s="14" t="s">
+      <c r="G239" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="H239" s="14" t="s">
+      <c r="H239" s="1" t="s">
         <v>1632</v>
       </c>
       <c r="I239" s="1" t="s">
@@ -13386,10 +13384,10 @@
       <c r="F240" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="G240" s="14" t="s">
+      <c r="G240" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="H240" s="14" t="s">
+      <c r="H240" s="1" t="s">
         <v>1767</v>
       </c>
       <c r="I240" s="1" t="s">
@@ -13399,7 +13397,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" ht="16">
       <c r="A241" s="1" t="s">
         <v>1633</v>
       </c>
@@ -13418,10 +13416,10 @@
       <c r="F241" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="G241" s="14" t="s">
+      <c r="G241" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="H241" s="14" t="s">
+      <c r="H241" s="1" t="s">
         <v>1638</v>
       </c>
       <c r="I241" s="1" t="s">
@@ -13450,10 +13448,10 @@
       <c r="F242" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="G242" s="14" t="s">
+      <c r="G242" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="H242" s="14" t="s">
+      <c r="H242" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I242" s="1" t="s">
@@ -13464,12 +13462,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J205">
-    <sortState ref="A2:P205">
+  <autoFilter ref="A1:J205" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P205">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:J242">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J242">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw/NegEx_CLDF.xlsx
+++ b/raw/NegEx_CLDF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Documents/GitHub/veselinovanegex/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B64DB-C93D-C441-9319-9B307C804FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD75325-E04D-F748-B6C9-6CA664F00BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27700" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="1773">
   <si>
     <t>ID</t>
   </si>
@@ -5368,9 +5368,6 @@
   </si>
   <si>
     <t>Beàta Wagner-Nagu p.c., Laakso et al. 2012</t>
-  </si>
-  <si>
-    <t>SN xxxx</t>
   </si>
 </sst>
 </file>
@@ -6660,7 +6657,7 @@
         <v>81</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1773</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10">
